--- a/9V_Converter/9V_Converter_bom.xlsx
+++ b/9V_Converter/9V_Converter_bom.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Documents/GitHub/Midi-boards/9V_Converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BC5293-C95A-4441-8DA2-03646D12348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85C0BC2-4D6E-FE45-8DF6-DF1027DACDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33300" yWindow="9580" windowWidth="28800" windowHeight="16060" xr2:uid="{B1A2F949-7E6C-8644-8E19-B56F3D22CDD7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" xr2:uid="{B1A2F949-7E6C-8644-8E19-B56F3D22CDD7}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru10" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru10!$A$1:$E$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru10!$A$1:$E$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
   <si>
     <t>Light emitting diode</t>
   </si>
@@ -344,9 +344,6 @@
     <t>Sockets, switches, housing:</t>
   </si>
   <si>
-    <t>Jumper and 3-pin male header</t>
-  </si>
-  <si>
     <t>9V Power Converter</t>
   </si>
   <si>
@@ -386,9 +383,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>80 pin jumper header strip</t>
-  </si>
-  <si>
     <t>to be cut in pieces</t>
   </si>
   <si>
@@ -398,9 +392,6 @@
     <t>J7, J8</t>
   </si>
   <si>
-    <t>Jumper and 2-pin male header</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -428,13 +419,25 @@
     <t xml:space="preserve">* Set jumpers appropriate to the polarity, always power off before moving jumpers. </t>
   </si>
   <si>
-    <t>* JP1 bypasses 9V poewr regulator if desired</t>
-  </si>
-  <si>
     <t>* JP2 enables a voltmeter</t>
   </si>
   <si>
     <t>https://github.com/Deftaudio/Midi-boards</t>
+  </si>
+  <si>
+    <t>2.54mm jumper</t>
+  </si>
+  <si>
+    <t>80-pin 2.54mm header strip</t>
+  </si>
+  <si>
+    <t>3-pin 2.54mm male header</t>
+  </si>
+  <si>
+    <t>2-pin 2.54mm male header</t>
+  </si>
+  <si>
+    <t>* JP1 bypasses 9V power regulator if desired</t>
   </si>
 </sst>
 </file>
@@ -646,7 +649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -654,62 +657,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -735,13 +726,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>977</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>227625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>915867</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>191653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1092,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ95"/>
+  <dimension ref="A1:AJ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="104" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:C43"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="104" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1153,13 +1144,13 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
       <c r="AF2">
         <v>17</v>
       </c>
@@ -1176,14 +1167,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="20" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+    <row r="3" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF4">
@@ -1279,7 +1270,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
@@ -1348,10 +1339,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1372,33 +1363,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="AF12" s="20">
+      <c r="AF12">
         <v>21</v>
       </c>
-      <c r="AG12" s="20" t="s">
+      <c r="AG12" t="s">
         <v>54</v>
       </c>
-      <c r="AH12" s="20">
+      <c r="AH12">
         <v>21</v>
       </c>
-      <c r="AI12" s="20">
+      <c r="AI12">
         <v>4</v>
       </c>
-      <c r="AJ12" s="20" t="s">
+      <c r="AJ12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1475,14 +1466,14 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
@@ -1509,10 +1500,10 @@
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1648,7 +1639,7 @@
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
@@ -1719,19 +1710,19 @@
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>41</v>
@@ -1745,26 +1736,26 @@
       <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="AF27" s="20">
+      <c r="AF27">
         <v>26</v>
       </c>
-      <c r="AG27" s="20" t="s">
+      <c r="AG27" t="s">
         <v>58</v>
       </c>
-      <c r="AH27" s="20">
+      <c r="AH27">
         <v>26</v>
       </c>
-      <c r="AI27" s="20">
+      <c r="AI27">
         <v>2</v>
       </c>
-      <c r="AJ27" s="20" t="s">
+      <c r="AJ27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-      <c r="B28" s="5" t="s">
-        <v>114</v>
+      <c r="B28" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>45</v>
@@ -1794,13 +1785,13 @@
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -1821,326 +1812,313 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-    </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AF34">
-        <v>28</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH34">
-        <v>28</v>
-      </c>
-      <c r="AI34">
-        <v>5</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>29</v>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF35">
+        <v>28</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH35">
+        <v>28</v>
+      </c>
+      <c r="AI35">
+        <v>5</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AF36">
         <v>32</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AG36" t="s">
         <v>61</v>
       </c>
-      <c r="AH35">
+      <c r="AH36">
         <v>32</v>
       </c>
-      <c r="AI35">
+      <c r="AI36">
         <v>2</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AJ36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
-      <c r="AF36">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="AF37">
         <v>33</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AG37" t="s">
         <v>62</v>
       </c>
-      <c r="AH36">
+      <c r="AH37">
         <v>33</v>
       </c>
-      <c r="AI36">
-        <v>1</v>
-      </c>
-      <c r="AJ36" t="s">
+      <c r="AI37">
+        <v>1</v>
+      </c>
+      <c r="AJ37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="1:36" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:36" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="E39" s="7"/>
+      <c r="AF39">
+        <v>34</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH39">
+        <v>34</v>
+      </c>
+      <c r="AI39">
+        <v>3</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="25"/>
+      <c r="AF40">
+        <v>35</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH40">
+        <v>35</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="25"/>
+      <c r="AF42">
+        <v>36</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH42">
+        <v>36</v>
+      </c>
+      <c r="AI42">
+        <v>3</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="AF38">
-        <v>34</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH38">
-        <v>34</v>
-      </c>
-      <c r="AI38">
-        <v>3</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="28"/>
-      <c r="AF39">
-        <v>35</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH39">
-        <v>35</v>
-      </c>
-      <c r="AI39">
-        <v>1</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28"/>
-      <c r="AF41">
-        <v>36</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH41">
-        <v>36</v>
-      </c>
-      <c r="AI41">
-        <v>3</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="AF42">
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="E43" s="7"/>
+      <c r="AF43">
         <v>37</v>
       </c>
-      <c r="AG42" t="s">
+      <c r="AG43" t="s">
         <v>66</v>
       </c>
-      <c r="AH42">
+      <c r="AH43">
         <v>37</v>
       </c>
-      <c r="AI42">
-        <v>1</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A43" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
-      <c r="AF43">
-        <v>38</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH43">
-        <v>38</v>
-      </c>
       <c r="AI43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A44" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
+      <c r="A44" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="E44" s="7"/>
       <c r="AF44">
+        <v>38</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH44">
+        <v>38</v>
+      </c>
+      <c r="AI44">
+        <v>3</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="E45" s="7"/>
+      <c r="AF45">
         <v>39</v>
       </c>
-      <c r="AG44" t="s">
+      <c r="AG45" t="s">
         <v>68</v>
       </c>
-      <c r="AH44">
+      <c r="AH45">
         <v>39</v>
       </c>
-      <c r="AI44">
-        <v>1</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="13"/>
-      <c r="AF45">
-        <v>40</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH45">
-        <v>40</v>
-      </c>
       <c r="AI45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ45" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
       <c r="AF46">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AG46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH46">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AI46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF47">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AH47">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ47" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.2">
@@ -2154,27 +2132,27 @@
         <v>54</v>
       </c>
       <c r="AI48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ48" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF49">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AH49">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ49" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="32:36" x14ac:dyDescent="0.2">
@@ -2188,44 +2166,44 @@
         <v>55</v>
       </c>
       <c r="AI50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ50" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF51">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH51">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ51" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF52">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH52">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI52">
         <v>1</v>
       </c>
       <c r="AJ52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="32:36" x14ac:dyDescent="0.2">
@@ -2239,10 +2217,10 @@
         <v>57</v>
       </c>
       <c r="AI53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="32:36" x14ac:dyDescent="0.2">
@@ -2256,44 +2234,44 @@
         <v>57</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ54" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF55">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH55">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ55" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF56">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH56">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="32:36" x14ac:dyDescent="0.2">
@@ -2307,10 +2285,10 @@
         <v>59</v>
       </c>
       <c r="AI57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="32:36" x14ac:dyDescent="0.2">
@@ -2324,41 +2302,41 @@
         <v>59</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ58" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF59">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH59">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI59">
         <v>1</v>
       </c>
       <c r="AJ59" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF60">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH60">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ60" t="s">
         <v>41</v>
@@ -2366,16 +2344,16 @@
     </row>
     <row r="61" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF61">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH61">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ61" t="s">
         <v>41</v>
@@ -2383,16 +2361,16 @@
     </row>
     <row r="62" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF62">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH62">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ62" t="s">
         <v>41</v>
@@ -2409,27 +2387,27 @@
         <v>63</v>
       </c>
       <c r="AI63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ63" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="32:36" x14ac:dyDescent="0.2">
@@ -2443,10 +2421,10 @@
         <v>64</v>
       </c>
       <c r="AI65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="32:36" x14ac:dyDescent="0.2">
@@ -2460,27 +2438,27 @@
         <v>64</v>
       </c>
       <c r="AI66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ66" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF67">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH67">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="32:36" x14ac:dyDescent="0.2">
@@ -2494,27 +2472,27 @@
         <v>65</v>
       </c>
       <c r="AI68">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ68" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF69">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH69">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI69">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ69" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="32:36" x14ac:dyDescent="0.2">
@@ -2528,10 +2506,10 @@
         <v>66</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="32:36" x14ac:dyDescent="0.2">
@@ -2548,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="AJ71" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="32:36" x14ac:dyDescent="0.2">
@@ -2565,24 +2543,24 @@
         <v>1</v>
       </c>
       <c r="AJ72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF73">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH73">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI73">
         <v>1</v>
       </c>
       <c r="AJ73" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="32:36" x14ac:dyDescent="0.2">
@@ -2596,10 +2574,10 @@
         <v>67</v>
       </c>
       <c r="AI74">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="32:36" x14ac:dyDescent="0.2">
@@ -2613,10 +2591,10 @@
         <v>67</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ75" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="32:36" x14ac:dyDescent="0.2">
@@ -2630,10 +2608,10 @@
         <v>67</v>
       </c>
       <c r="AI76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ76" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="32:36" x14ac:dyDescent="0.2">
@@ -2647,10 +2625,10 @@
         <v>67</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ77" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="32:36" x14ac:dyDescent="0.2">
@@ -2667,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="AJ78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="32:36" x14ac:dyDescent="0.2">
@@ -2684,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="AJ79" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="32:36" x14ac:dyDescent="0.2">
@@ -2701,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="AJ80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="32:36" x14ac:dyDescent="0.2">
@@ -2718,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="AJ81" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="32:36" x14ac:dyDescent="0.2">
@@ -2735,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="AJ82" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="32:36" x14ac:dyDescent="0.2">
@@ -2752,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AJ83" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="32:36" x14ac:dyDescent="0.2">
@@ -2769,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="AJ84" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="32:36" x14ac:dyDescent="0.2">
@@ -2786,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="AJ85" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="32:36" x14ac:dyDescent="0.2">
@@ -2803,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="AJ86" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="32:36" x14ac:dyDescent="0.2">
@@ -2820,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="AJ87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="32:36" x14ac:dyDescent="0.2">
@@ -2834,10 +2812,10 @@
         <v>67</v>
       </c>
       <c r="AI88">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ88" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="32:36" x14ac:dyDescent="0.2">
@@ -2851,10 +2829,10 @@
         <v>67</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ89" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="32:36" x14ac:dyDescent="0.2">
@@ -2871,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="AJ90" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="32:36" x14ac:dyDescent="0.2">
@@ -2885,10 +2863,10 @@
         <v>67</v>
       </c>
       <c r="AI91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ91" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="32:36" x14ac:dyDescent="0.2">
@@ -2902,10 +2880,10 @@
         <v>67</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ92" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="32:36" x14ac:dyDescent="0.2">
@@ -2919,27 +2897,27 @@
         <v>67</v>
       </c>
       <c r="AI93">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ93" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF94">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH94">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI94">
+        <v>14</v>
+      </c>
+      <c r="AJ94" t="s">
         <v>3</v>
-      </c>
-      <c r="AJ94" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="95" spans="32:36" x14ac:dyDescent="0.2">
@@ -2953,26 +2931,43 @@
         <v>68</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ95" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="32:36" x14ac:dyDescent="0.2">
+      <c r="AF96">
+        <v>68</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH96">
+        <v>68</v>
+      </c>
+      <c r="AI96">
+        <v>1</v>
+      </c>
+      <c r="AJ96" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT96">
-    <sortCondition ref="A1:A96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT97">
+    <sortCondition ref="A1:A97"/>
   </sortState>
   <mergeCells count="9">
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A43:C43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
